--- a/simulation/phenotypic_naive_summary.xlsx
+++ b/simulation/phenotypic_naive_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanjun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanjun/Desktop/kdps/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB196D-CFCB-8E4F-A431-3D19F45B322A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634A4D6-C61F-724E-81DD-56258887D36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{20588564-D4C3-DD40-ABF7-FF156A7655C9}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54D7EFF-0123-BD49-8A41-BF85B2B9E60C}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
